--- a/資料/設計/スケジュール/スケジュール表v0.24.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE690BFA-E32F-4D87-99DC-D56A665E773F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E31EA-225A-412E-9BAA-F1CA94F57789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
@@ -1515,10 +1515,10 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2676,8 +2676,12 @@
       <c r="N15" s="15">
         <v>1</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="15"/>
